--- a/packages/jsreport-xlsx/test/xlsx/loop-multiple-rows.xlsx
+++ b/packages/jsreport-xlsx/test/xlsx/loop-multiple-rows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/jsreport/jsreport/packages/jsreport-xlsx/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/jsreport/jsreport/packages/jsreport-xlsx/test/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18DFA2E-2A31-CD4D-9D7B-4FDD784A9C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8281871-AED9-D149-B946-84591F0891E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="3200" windowWidth="28040" windowHeight="17440" xr2:uid="{E64D1ECD-F10D-4745-832B-F27334D20F18}"/>
+    <workbookView xWindow="8220" yWindow="2580" windowWidth="28040" windowHeight="17440" xr2:uid="{E64D1ECD-F10D-4745-832B-F27334D20F18}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,19 @@
     <t>Lastname</t>
   </si>
   <si>
+    <t>{{name}}</t>
+  </si>
+  <si>
+    <t>{{age}}</t>
+  </si>
+  <si>
+    <t>{{#each items}}</t>
+  </si>
+  <si>
+    <t>{{/each}}</t>
+  </si>
+  <si>
     <t>{{lastname}}</t>
-  </si>
-  <si>
-    <t>{{name}}</t>
-  </si>
-  <si>
-    <t>{{age}}</t>
-  </si>
-  <si>
-    <t>{{#each items}}</t>
-  </si>
-  <si>
-    <t>{{/each}}</t>
   </si>
 </sst>
 </file>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,14 +412,17 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -435,18 +438,18 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
